--- a/TEMPLATE_Test Manager Import - Requirements + Test Cases.xlsx
+++ b/TEMPLATE_Test Manager Import - Requirements + Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikram.parolkar\Documents\UiPath\DigitalTester_UploadManualTestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6240677D-B2B0-4FDE-9B60-3C3F096D87D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD9D925-EC35-4D1A-A22C-DF7B6EB56AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="128">
   <si>
     <t>Requirement</t>
   </si>
@@ -400,13 +400,67 @@
     <t>emerald.koe@gmail.com, 12000, 5, 30000, 35</t>
   </si>
   <si>
-    <t>DEL</t>
-  </si>
-  <si>
-    <t>To Delete</t>
-  </si>
-  <si>
-    <t>NEW</t>
+    <t>TEST MANAGER DEMO</t>
+  </si>
+  <si>
+    <t>TMDEMO</t>
+  </si>
+  <si>
+    <t>fd0ff3c2-618e-0300-654c-0b469ab1416e</t>
+  </si>
+  <si>
+    <t>TMDEMO:2</t>
+  </si>
+  <si>
+    <t>TMDEMO:3</t>
+  </si>
+  <si>
+    <t>TMDEMO:4</t>
+  </si>
+  <si>
+    <t>TMDEMO:5</t>
+  </si>
+  <si>
+    <t>TMDEMO:6</t>
+  </si>
+  <si>
+    <t>TMDEMO:7</t>
+  </si>
+  <si>
+    <t>TMDEMO:8</t>
+  </si>
+  <si>
+    <t>213f7a6b-628e-0300-3433-0b469ab1651c</t>
+  </si>
+  <si>
+    <t>TMDEMO:10</t>
+  </si>
+  <si>
+    <t>TMDEMO:11</t>
+  </si>
+  <si>
+    <t>5cfe3ffd-638e-0300-e271-0b469ab16c02</t>
+  </si>
+  <si>
+    <t>TMDEMO:13</t>
+  </si>
+  <si>
+    <t>TMDEMO:14</t>
+  </si>
+  <si>
+    <t>TMDEMO:15</t>
+  </si>
+  <si>
+    <t>4bdd12e3-648e-0300-29c7-0b469ab1719e</t>
+  </si>
+  <si>
+    <t>TMDEMO:17</t>
+  </si>
+  <si>
+    <t>f36459fb-658e-0300-584c-0b469ab17456</t>
+  </si>
+  <si>
+    <t>TMDEMO:19</t>
   </si>
 </sst>
 </file>
@@ -1623,7 +1677,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1631,7 +1685,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1649,8 +1703,8 @@
   </sheetPr>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1695,7 +1749,9 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>109</v>
       </c>
@@ -1743,9 +1799,11 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>82</v>
@@ -1768,9 +1826,11 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C5" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>83</v>
@@ -1793,9 +1853,11 @@
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C6" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>84</v>
@@ -1818,9 +1880,11 @@
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C7" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>85</v>
@@ -1843,9 +1907,11 @@
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C8" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>86</v>
@@ -1868,9 +1934,11 @@
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>87</v>
@@ -1893,9 +1961,11 @@
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C10" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>88</v>
@@ -1945,9 +2015,11 @@
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C12" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>71</v>
@@ -1993,9 +2065,11 @@
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C14" s="1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>89</v>
@@ -2014,9 +2088,11 @@
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C15" s="1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>90</v>
@@ -2062,9 +2138,11 @@
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C17" s="1" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D17" s="29" t="s">
         <v>73</v>
@@ -2110,9 +2188,11 @@
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C19" s="1" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>80</v>
@@ -2131,9 +2211,11 @@
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C20" s="1" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>91</v>
@@ -2152,9 +2234,11 @@
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C21" s="1" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>92</v>
@@ -2200,9 +2284,11 @@
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C23" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="D23" s="29" t="s">
         <v>75</v>
@@ -2248,9 +2334,11 @@
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C25" s="1" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>93</v>
@@ -2296,9 +2384,11 @@
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C27" s="1" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="D27" s="29" t="s">
         <v>76</v>
@@ -2344,9 +2434,11 @@
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C29" s="1" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>78</v>
